--- a/Aula_3_-_Regressao_Linear/201911_PIBIU_PORT.xlsx
+++ b/Aula_3_-_Regressao_Linear/201911_PIBIU_PORT.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leandro.mendes/Codes/personal_github/Shift_machine_learning/Aula_3_-_Regressao_Linear/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED3F2B-F09F-EB4C-B9ED-648355E742AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="11505"/>
+    <workbookView xWindow="2240" yWindow="1580" windowWidth="24180" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -14,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>DESSAZ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SEM aj.</t>
   </si>
@@ -28,12 +31,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="[$-416]mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0,"/>
     <numFmt numFmtId="168" formatCode="#,##0,,"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
@@ -43,7 +46,7 @@
     <numFmt numFmtId="173" formatCode="#,##0.00_);\(#,##0.00\);&quot; --- &quot;"/>
     <numFmt numFmtId="174" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,20 +68,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color indexed="18"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -122,18 +111,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -144,12 +127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,82 +165,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Comma 2" xfId="10"/>
-    <cellStyle name="Comma 3" xfId="22"/>
-    <cellStyle name="En miles" xfId="12"/>
-    <cellStyle name="En millones" xfId="13"/>
-    <cellStyle name="Millares [0]_ Graf 5.4" xfId="14"/>
-    <cellStyle name="Millares [2]" xfId="15"/>
-    <cellStyle name="Millares_ Graf 5.4" xfId="16"/>
-    <cellStyle name="Moneda [0]_ Graf 5.4" xfId="17"/>
-    <cellStyle name="Moneda_(BYS)Dist. % mensual" xfId="18"/>
+    <cellStyle name="Comma 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="En miles" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="En millones" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Millares [0]_ Graf 5.4" xfId="14" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Millares [2]" xfId="15" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Millares_ Graf 5.4" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Moneda [0]_ Graf 5.4" xfId="17" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Moneda_(BYS)Dist. % mensual" xfId="18" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="6"/>
-    <cellStyle name="Normal 3 2 2" xfId="23"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 4 2" xfId="24"/>
-    <cellStyle name="Normal 5" xfId="3"/>
-    <cellStyle name="Nulos" xfId="19"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Nulos" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="11"/>
-    <cellStyle name="Porcentagem 2" xfId="8"/>
-    <cellStyle name="Porcentagem 2 2" xfId="25"/>
-    <cellStyle name="Porcentagem 3" xfId="4"/>
-    <cellStyle name="Porcentual_PlazoRend-II01" xfId="20"/>
-    <cellStyle name="Sep. milhar [0]" xfId="21"/>
-    <cellStyle name="Vírgula 2" xfId="9"/>
-    <cellStyle name="Vírgula 2 2" xfId="26"/>
+    <cellStyle name="Percent 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Porcentagem 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Porcentagem 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Porcentagem 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Porcentual_PlazoRend-II01" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Sep. milhar [0]" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Vírgula 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Vírgula 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -321,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,9 +322,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,6 +374,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,2245 +566,1636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="56">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>37622</v>
       </c>
-      <c r="B3" s="9">
-        <v>100</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="7">
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>37653</v>
       </c>
-      <c r="B4" s="9">
-        <v>104.51406937851534</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="7">
         <v>100.67433065709287</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>37681</v>
       </c>
-      <c r="B5" s="9">
-        <v>100.40681021009206</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="7">
         <v>101.35204065491504</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>37712</v>
       </c>
-      <c r="B6" s="9">
-        <v>100.22813953672963</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="7">
         <v>100.57174434399944</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>37742</v>
       </c>
-      <c r="B7" s="9">
-        <v>99.088077624297512</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="7">
         <v>101.17238691355146</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>37773</v>
       </c>
-      <c r="B8" s="9">
-        <v>98.784866759335571</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="7">
         <v>99.357639349932967</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>37803</v>
       </c>
-      <c r="B9" s="9">
-        <v>97.739987791876374</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="7">
         <v>100.83021734964933</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>37834</v>
       </c>
-      <c r="B10" s="9">
-        <v>100.11737972966574</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="7">
         <v>101.39660533790371</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>37865</v>
       </c>
-      <c r="B11" s="9">
-        <v>101.91440693561427</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="7">
         <v>103.87308439990191</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>37895</v>
       </c>
-      <c r="B12" s="9">
-        <v>103.46405021750354</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="7">
         <v>105.04665459975762</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>37926</v>
       </c>
-      <c r="B13" s="9">
-        <v>104.3752056219795</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="7">
         <v>103.40096979149288</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>37956</v>
       </c>
-      <c r="B14" s="9">
-        <v>100.29708941329916</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="7">
         <v>103.02751691638008</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>37987</v>
       </c>
-      <c r="B15" s="9">
-        <v>103.11163565135062</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="7">
         <v>103.09288954876487</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>38018</v>
       </c>
-      <c r="B16" s="9">
-        <v>104.05372387921446</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16" s="7">
         <v>102.70480442257821</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>38047</v>
       </c>
-      <c r="B17" s="9">
-        <v>107.53627087638003</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="7">
         <v>110.05086203577966</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>38078</v>
       </c>
-      <c r="B18" s="9">
-        <v>106.05159018264338</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="7">
         <v>106.13512037156782</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>38108</v>
       </c>
-      <c r="B19" s="9">
-        <v>106.16395357676993</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="7">
         <v>107.27271585004989</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>38139</v>
       </c>
-      <c r="B20" s="9">
-        <v>106.63296504965814</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="7">
         <v>108.53426778525863</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>38169</v>
       </c>
-      <c r="B21" s="9">
-        <v>107.15830065015288</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="7">
         <v>110.41083366848873</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>38200</v>
       </c>
-      <c r="B22" s="9">
-        <v>107.62733105183764</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="B22" s="7">
         <v>109.6304893453339</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>38231</v>
       </c>
-      <c r="B23" s="9">
-        <v>108.01507151308549</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="7">
         <v>109.49637427113353</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>38261</v>
       </c>
-      <c r="B24" s="9">
-        <v>108.00323649781294</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="7">
         <v>108.44755466315716</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>38292</v>
       </c>
-      <c r="B25" s="9">
-        <v>107.53054055607127</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="7">
         <v>108.50858535412961</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>38322</v>
       </c>
-      <c r="B26" s="9">
-        <v>108.03155064385963</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="B26" s="7">
         <v>110.58402551515294</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>38353</v>
       </c>
-      <c r="B27" s="9">
-        <v>109.48545323638095</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="7">
         <v>108.25857901380255</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>38384</v>
       </c>
-      <c r="B28" s="9">
-        <v>110.29926913543801</v>
-      </c>
-      <c r="C28" s="10">
+      <c r="B28" s="7">
         <v>106.19861387536952</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>38412</v>
       </c>
-      <c r="B29" s="9">
-        <v>110.57151660653179</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="7">
         <v>112.61336900879706</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>38443</v>
       </c>
-      <c r="B30" s="9">
-        <v>111.11599567564205</v>
-      </c>
-      <c r="C30" s="10">
+      <c r="B30" s="7">
         <v>110.72890312775729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>38473</v>
       </c>
-      <c r="B31" s="9">
-        <v>109.99464738438036</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="7">
         <v>111.68060358390208</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>38504</v>
       </c>
-      <c r="B32" s="9">
-        <v>111.06053016041908</v>
-      </c>
-      <c r="C32" s="10">
+      <c r="B32" s="7">
         <v>112.75018492909477</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>38534</v>
       </c>
-      <c r="B33" s="9">
-        <v>109.676831374047</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="7">
         <v>111.87186109298575</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>38565</v>
       </c>
-      <c r="B34" s="9">
-        <v>110.10285547474861</v>
-      </c>
-      <c r="C34" s="10">
+      <c r="B34" s="7">
         <v>113.63525928319014</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>38596</v>
       </c>
-      <c r="B35" s="9">
-        <v>110.14957841579314</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="B35" s="7">
         <v>111.99503991234964</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>38626</v>
       </c>
-      <c r="B36" s="9">
-        <v>110.44810620314223</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="B36" s="7">
         <v>111.10795083303819</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>38657</v>
       </c>
-      <c r="B37" s="9">
-        <v>111.26443883521331</v>
-      </c>
-      <c r="C37" s="10">
+      <c r="B37" s="7">
         <v>112.10485377156813</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>38687</v>
       </c>
-      <c r="B38" s="9">
-        <v>112.89823772808612</v>
-      </c>
-      <c r="C38" s="10">
+      <c r="B38" s="7">
         <v>115.38437029378071</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>38718</v>
       </c>
-      <c r="B39" s="9">
-        <v>114.09982009066735</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="B39" s="7">
         <v>113.25248300585885</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38749</v>
       </c>
-      <c r="B40" s="9">
-        <v>113.31042263846678</v>
-      </c>
-      <c r="C40" s="10">
+      <c r="B40" s="7">
         <v>109.44808681926818</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>38777</v>
       </c>
-      <c r="B41" s="9">
-        <v>113.52077138356992</v>
-      </c>
-      <c r="C41" s="10">
+      <c r="B41" s="7">
         <v>114.66467089355957</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>38808</v>
       </c>
-      <c r="B42" s="9">
-        <v>113.07352027286812</v>
-      </c>
-      <c r="C42" s="10">
+      <c r="B42" s="7">
         <v>110.77967229987043</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>38838</v>
       </c>
-      <c r="B43" s="9">
-        <v>114.53426763330556</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="B43" s="7">
         <v>117.61993630331891</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>38869</v>
       </c>
-      <c r="B44" s="9">
-        <v>114.09191355466308</v>
-      </c>
-      <c r="C44" s="10">
+      <c r="B44" s="7">
         <v>116.21746798542713</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>38899</v>
       </c>
-      <c r="B45" s="9">
-        <v>115.4760795418423</v>
-      </c>
-      <c r="C45" s="10">
+      <c r="B45" s="7">
         <v>117.93395132167991</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>38930</v>
       </c>
-      <c r="B46" s="9">
-        <v>115.66409140973808</v>
-      </c>
-      <c r="C46" s="10">
+      <c r="B46" s="7">
         <v>119.45589708231182</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>38961</v>
       </c>
-      <c r="B47" s="9">
-        <v>115.25442056492818</v>
-      </c>
-      <c r="C47" s="10">
+      <c r="B47" s="7">
         <v>117.27896101284054</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>38991</v>
       </c>
-      <c r="B48" s="9">
-        <v>116.36155628297564</v>
-      </c>
-      <c r="C48" s="10">
+      <c r="B48" s="7">
         <v>117.74814589423126</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>39022</v>
       </c>
-      <c r="B49" s="9">
-        <v>117.34041452970368</v>
-      </c>
-      <c r="C49" s="10">
+      <c r="B49" s="7">
         <v>118.02889163757447</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>39052</v>
       </c>
-      <c r="B50" s="9">
-        <v>118.01370980878856</v>
-      </c>
-      <c r="C50" s="10">
+      <c r="B50" s="7">
         <v>119.04611780351117</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>39083</v>
       </c>
-      <c r="B51" s="9">
-        <v>118.2623499104463</v>
-      </c>
-      <c r="C51" s="10">
+      <c r="B51" s="7">
         <v>118.52143567332266</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>39114</v>
       </c>
-      <c r="B52" s="9">
-        <v>118.11963026830708</v>
-      </c>
-      <c r="C52" s="10">
+      <c r="B52" s="7">
         <v>113.63947420296456</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>39142</v>
       </c>
-      <c r="B53" s="9">
-        <v>118.35097613368349</v>
-      </c>
-      <c r="C53" s="10">
+      <c r="B53" s="7">
         <v>119.56924301577021</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>39173</v>
       </c>
-      <c r="B54" s="9">
-        <v>119.45040533401081</v>
-      </c>
-      <c r="C54" s="10">
+      <c r="B54" s="7">
         <v>116.91247546145837</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>39203</v>
       </c>
-      <c r="B55" s="9">
-        <v>121.20607195099855</v>
-      </c>
-      <c r="C55" s="10">
+      <c r="B55" s="7">
         <v>124.3401521215545</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>39234</v>
       </c>
-      <c r="B56" s="9">
-        <v>121.59384493756508</v>
-      </c>
-      <c r="C56" s="10">
+      <c r="B56" s="7">
         <v>123.78607180849315</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>39264</v>
       </c>
-      <c r="B57" s="9">
-        <v>122.71212457494416</v>
-      </c>
-      <c r="C57" s="10">
+      <c r="B57" s="7">
         <v>125.91224850320309</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>39295</v>
       </c>
-      <c r="B58" s="9">
-        <v>123.16484174876861</v>
-      </c>
-      <c r="C58" s="10">
+      <c r="B58" s="7">
         <v>127.36933896119959</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>39326</v>
       </c>
-      <c r="B59" s="9">
-        <v>123.459171720624</v>
-      </c>
-      <c r="C59" s="10">
+      <c r="B59" s="7">
         <v>124.32298530610539</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>39356</v>
       </c>
-      <c r="B60" s="9">
-        <v>124.74741556668421</v>
-      </c>
-      <c r="C60" s="10">
+      <c r="B60" s="7">
         <v>127.81476182545893</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>39387</v>
       </c>
-      <c r="B61" s="9">
-        <v>124.86917870629036</v>
-      </c>
-      <c r="C61" s="10">
+      <c r="B61" s="7">
         <v>126.05063599099427</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>39417</v>
       </c>
-      <c r="B62" s="9">
-        <v>125.44653112224535</v>
-      </c>
-      <c r="C62" s="10">
+      <c r="B62" s="7">
         <v>126.35330124585749</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>39448</v>
       </c>
-      <c r="B63" s="9">
-        <v>125.49000479299576</v>
-      </c>
-      <c r="C63" s="10">
+      <c r="B63" s="7">
         <v>125.35742822732755</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>39479</v>
       </c>
-      <c r="B64" s="9">
-        <v>124.06316904901382</v>
-      </c>
-      <c r="C64" s="10">
+      <c r="B64" s="7">
         <v>123.82229794344899</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>39508</v>
       </c>
-      <c r="B65" s="9">
-        <v>126.30923781615313</v>
-      </c>
-      <c r="C65" s="10">
+      <c r="B65" s="7">
         <v>125.95291252483155</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>39539</v>
       </c>
-      <c r="B66" s="9">
-        <v>127.86804438239811</v>
-      </c>
-      <c r="C66" s="10">
+      <c r="B66" s="7">
         <v>126.23665669144397</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>39569</v>
       </c>
-      <c r="B67" s="9">
-        <v>128.13146619445536</v>
-      </c>
-      <c r="C67" s="10">
+      <c r="B67" s="7">
         <v>131.31190369753074</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>39600</v>
       </c>
-      <c r="B68" s="9">
-        <v>132.04269180603762</v>
-      </c>
-      <c r="C68" s="10">
+      <c r="B68" s="7">
         <v>133.18117071651662</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>39630</v>
       </c>
-      <c r="B69" s="9">
-        <v>131.26410854927326</v>
-      </c>
-      <c r="C69" s="10">
+      <c r="B69" s="7">
         <v>135.86654011164032</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>39661</v>
       </c>
-      <c r="B70" s="9">
-        <v>130.96904763654459</v>
-      </c>
-      <c r="C70" s="10">
+      <c r="B70" s="7">
         <v>134.03870401786492</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>39692</v>
       </c>
-      <c r="B71" s="9">
-        <v>131.13248232126091</v>
-      </c>
-      <c r="C71" s="10">
+      <c r="B71" s="7">
         <v>134.7812403718242</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>39722</v>
       </c>
-      <c r="B72" s="9">
-        <v>130.29506204316576</v>
-      </c>
-      <c r="C72" s="10">
+      <c r="B72" s="7">
         <v>133.23694755633682</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>39753</v>
       </c>
-      <c r="B73" s="9">
-        <v>126.96239078629259</v>
-      </c>
-      <c r="C73" s="10">
+      <c r="B73" s="7">
         <v>126.52954744637218</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>39783</v>
       </c>
-      <c r="B74" s="9">
-        <v>121.67665388474201</v>
-      </c>
-      <c r="C74" s="10">
+      <c r="B74" s="7">
         <v>124.1715632259402</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>39814</v>
       </c>
-      <c r="B75" s="9">
-        <v>122.76459407341855</v>
-      </c>
-      <c r="C75" s="10">
+      <c r="B75" s="7">
         <v>122.19516143376035</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>39845</v>
       </c>
-      <c r="B76" s="9">
-        <v>123.66601214369058</v>
-      </c>
-      <c r="C76" s="10">
+      <c r="B76" s="7">
         <v>119.23500997949063</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>39873</v>
       </c>
-      <c r="B77" s="9">
-        <v>126.42602291388864</v>
-      </c>
-      <c r="C77" s="10">
+      <c r="B77" s="7">
         <v>125.98948555840322</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>39904</v>
       </c>
-      <c r="B78" s="9">
-        <v>124.71800897884648</v>
-      </c>
-      <c r="C78" s="10">
+      <c r="B78" s="7">
         <v>122.52191406906675</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>39934</v>
       </c>
-      <c r="B79" s="9">
-        <v>125.77305116984132</v>
-      </c>
-      <c r="C79" s="10">
+      <c r="B79" s="7">
         <v>127.51361536577195</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>39965</v>
       </c>
-      <c r="B80" s="9">
-        <v>126.98744199228405</v>
-      </c>
-      <c r="C80" s="10">
+      <c r="B80" s="7">
         <v>129.98414497671828</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>39995</v>
       </c>
-      <c r="B81" s="9">
-        <v>126.46094602867034</v>
-      </c>
-      <c r="C81" s="10">
+      <c r="B81" s="7">
         <v>130.67169169038576</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>40026</v>
       </c>
-      <c r="B82" s="9">
-        <v>128.33555722447514</v>
-      </c>
-      <c r="C82" s="10">
+      <c r="B82" s="7">
         <v>131.58161678102476</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>40057</v>
       </c>
-      <c r="B83" s="9">
-        <v>130.39885890398531</v>
-      </c>
-      <c r="C83" s="10">
+      <c r="B83" s="7">
         <v>133.8921670531407</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>40087</v>
       </c>
-      <c r="B84" s="9">
-        <v>130.84954514522963</v>
-      </c>
-      <c r="C84" s="10">
+      <c r="B84" s="7">
         <v>133.91626053910062</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>40118</v>
       </c>
-      <c r="B85" s="9">
-        <v>132.2770233207344</v>
-      </c>
-      <c r="C85" s="10">
+      <c r="B85" s="7">
         <v>132.31696556854874</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>40148</v>
       </c>
-      <c r="B86" s="9">
-        <v>132.97205684413055</v>
-      </c>
-      <c r="C86" s="10">
+      <c r="B86" s="7">
         <v>135.13787643560505</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>40179</v>
       </c>
-      <c r="B87" s="9">
-        <v>134.026054517256</v>
-      </c>
-      <c r="C87" s="10">
+      <c r="B87" s="7">
         <v>131.77007143128679</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>40210</v>
       </c>
-      <c r="B88" s="9">
-        <v>136.30382912897531</v>
-      </c>
-      <c r="C88" s="10">
+      <c r="B88" s="7">
         <v>130.90717738713946</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>40238</v>
       </c>
-      <c r="B89" s="9">
-        <v>139.38214685251072</v>
-      </c>
-      <c r="C89" s="10">
+      <c r="B89" s="7">
         <v>140.90625835998372</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>40269</v>
       </c>
-      <c r="B90" s="9">
-        <v>137.16340325160866</v>
-      </c>
-      <c r="C90" s="10">
+      <c r="B90" s="7">
         <v>135.05134061922703</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>40299</v>
       </c>
-      <c r="B91" s="9">
-        <v>137.15385577887943</v>
-      </c>
-      <c r="C91" s="10">
+      <c r="B91" s="7">
         <v>139.08780319466342</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>40330</v>
       </c>
-      <c r="B92" s="9">
-        <v>136.06953069222826</v>
-      </c>
-      <c r="C92" s="10">
+      <c r="B92" s="7">
         <v>139.01303877773884</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>40360</v>
       </c>
-      <c r="B93" s="9">
-        <v>136.22380133415078</v>
-      </c>
-      <c r="C93" s="10">
+      <c r="B93" s="7">
         <v>140.5170521408397</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>40391</v>
       </c>
-      <c r="B94" s="9">
-        <v>137.74818196808698</v>
-      </c>
-      <c r="C94" s="10">
+      <c r="B94" s="7">
         <v>141.88554730787004</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>40422</v>
       </c>
-      <c r="B95" s="9">
-        <v>138.50752424905281</v>
-      </c>
-      <c r="C95" s="10">
+      <c r="B95" s="7">
         <v>141.8685896794164</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>40452</v>
       </c>
-      <c r="B96" s="9">
-        <v>138.94103858946113</v>
-      </c>
-      <c r="C96" s="10">
+      <c r="B96" s="7">
         <v>140.73909508748346</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>40483</v>
       </c>
-      <c r="B97" s="9">
-        <v>139.82250576970742</v>
-      </c>
-      <c r="C97" s="10">
+      <c r="B97" s="7">
         <v>141.95725840945693</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>40513</v>
       </c>
-      <c r="B98" s="9">
-        <v>141.73580372684998</v>
-      </c>
-      <c r="C98" s="10">
+      <c r="B98" s="7">
         <v>143.4833431922882</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>40544</v>
       </c>
-      <c r="B99" s="9">
-        <v>141.18707943359453</v>
-      </c>
-      <c r="C99" s="10">
+      <c r="B99" s="7">
         <v>138.87974539333217</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>40575</v>
       </c>
-      <c r="B100" s="9">
-        <v>144.87752724216338</v>
-      </c>
-      <c r="C100" s="10">
+      <c r="B100" s="7">
         <v>139.22635610855832</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>40603</v>
       </c>
-      <c r="B101" s="9">
-        <v>140.0785193794012</v>
-      </c>
-      <c r="C101" s="10">
+      <c r="B101" s="7">
         <v>141.39821512982923</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>40634</v>
       </c>
-      <c r="B102" s="9">
-        <v>140.27455247868136</v>
-      </c>
-      <c r="C102" s="10">
+      <c r="B102" s="7">
         <v>138.20693533032133</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>40664</v>
       </c>
-      <c r="B103" s="9">
-        <v>143.60183626717313</v>
-      </c>
-      <c r="C103" s="10">
+      <c r="B103" s="7">
         <v>146.16216347408891</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>40695</v>
       </c>
-      <c r="B104" s="9">
-        <v>142.72678367758985</v>
-      </c>
-      <c r="C104" s="10">
+      <c r="B104" s="7">
         <v>145.29997991086137</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>40725</v>
       </c>
-      <c r="B105" s="9">
-        <v>143.35283522699839</v>
-      </c>
-      <c r="C105" s="10">
+      <c r="B105" s="7">
         <v>145.9593591363915</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>40756</v>
       </c>
-      <c r="B106" s="9">
-        <v>141.74006732441055</v>
-      </c>
-      <c r="C106" s="10">
+      <c r="B106" s="7">
         <v>147.63581305251097</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>40787</v>
       </c>
-      <c r="B107" s="9">
-        <v>142.5198943753077</v>
-      </c>
-      <c r="C107" s="10">
+      <c r="B107" s="7">
         <v>146.17346235958834</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>40817</v>
       </c>
-      <c r="B108" s="9">
-        <v>142.41964486603089</v>
-      </c>
-      <c r="C108" s="10">
+      <c r="B108" s="7">
         <v>144.47178235988349</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>40848</v>
       </c>
-      <c r="B109" s="9">
-        <v>143.17362286487244</v>
-      </c>
-      <c r="C109" s="10">
+      <c r="B109" s="7">
         <v>145.019391391862</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>40878</v>
       </c>
-      <c r="B110" s="9">
-        <v>145.52680902089713</v>
-      </c>
-      <c r="C110" s="10">
+      <c r="B110" s="7">
         <v>146.85617646272809</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>40909</v>
       </c>
-      <c r="B111" s="9">
-        <v>142.20836605234388</v>
-      </c>
-      <c r="C111" s="10">
+      <c r="B111" s="7">
         <v>140.57731185769384</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>40940</v>
       </c>
-      <c r="B112" s="9">
-        <v>140.15866548770157</v>
-      </c>
-      <c r="C112" s="10">
+      <c r="B112" s="7">
         <v>139.71565880618155</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>40969</v>
       </c>
-      <c r="B113" s="9">
-        <v>142.72760497302076</v>
-      </c>
-      <c r="C113" s="10">
+      <c r="B113" s="7">
         <v>143.96930982830432</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>41000</v>
       </c>
-      <c r="B114" s="9">
-        <v>142.14456007801749</v>
-      </c>
-      <c r="C114" s="10">
+      <c r="B114" s="7">
         <v>139.1026205969369</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>41030</v>
       </c>
-      <c r="B115" s="9">
-        <v>144.85541751706037</v>
-      </c>
-      <c r="C115" s="10">
+      <c r="B115" s="7">
         <v>148.5886436623141</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>41061</v>
       </c>
-      <c r="B116" s="9">
-        <v>145.69489032199647</v>
-      </c>
-      <c r="C116" s="10">
+      <c r="B116" s="7">
         <v>148.33460438851813</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>41091</v>
       </c>
-      <c r="B117" s="9">
-        <v>147.11630205524665</v>
-      </c>
-      <c r="C117" s="10">
+      <c r="B117" s="7">
         <v>150.25814350114845</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>41122</v>
       </c>
-      <c r="B118" s="9">
-        <v>147.88328534401927</v>
-      </c>
-      <c r="C118" s="10">
+      <c r="B118" s="7">
         <v>153.41004386455518</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>41153</v>
       </c>
-      <c r="B119" s="9">
-        <v>145.90361215310134</v>
-      </c>
-      <c r="C119" s="10">
+      <c r="B119" s="7">
         <v>147.33670373684885</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>41183</v>
       </c>
-      <c r="B120" s="9">
-        <v>147.4840138327053</v>
-      </c>
-      <c r="C120" s="10">
+      <c r="B120" s="7">
         <v>152.00689756584828</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>41214</v>
       </c>
-      <c r="B121" s="9">
-        <v>146.58903516315897</v>
-      </c>
-      <c r="C121" s="10">
+      <c r="B121" s="7">
         <v>148.42947138023757</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>41244</v>
       </c>
-      <c r="B122" s="9">
-        <v>148.23096129505885</v>
-      </c>
-      <c r="C122" s="10">
+      <c r="B122" s="7">
         <v>147.41285143096863</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>41275</v>
       </c>
-      <c r="B123" s="9">
-        <v>148.0469930732867</v>
-      </c>
-      <c r="C123" s="10">
+      <c r="B123" s="7">
         <v>147.75074069230311</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>41306</v>
       </c>
-      <c r="B124" s="9">
-        <v>147.44445670734524</v>
-      </c>
-      <c r="C124" s="10">
+      <c r="B124" s="7">
         <v>143.08441228755436</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>41334</v>
       </c>
-      <c r="B125" s="9">
-        <v>148.33432809039442</v>
-      </c>
-      <c r="C125" s="10">
+      <c r="B125" s="7">
         <v>148.83559377173481</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>41365</v>
       </c>
-      <c r="B126" s="9">
-        <v>150.13029544614332</v>
-      </c>
-      <c r="C126" s="10">
+      <c r="B126" s="7">
         <v>150.29693444169038</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>41395</v>
       </c>
-      <c r="B127" s="9">
-        <v>150.8371504246287</v>
-      </c>
-      <c r="C127" s="10">
+      <c r="B127" s="7">
         <v>152.22417392814444</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>41426</v>
       </c>
-      <c r="B128" s="9">
-        <v>150.20382282055323</v>
-      </c>
-      <c r="C128" s="10">
+      <c r="B128" s="7">
         <v>150.5086513931976</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>41456</v>
       </c>
-      <c r="B129" s="9">
-        <v>151.51916883140487</v>
-      </c>
-      <c r="C129" s="10">
+      <c r="B129" s="7">
         <v>153.89950669067818</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>41487</v>
       </c>
-      <c r="B130" s="9">
-        <v>151.78118302703447</v>
-      </c>
-      <c r="C130" s="10">
+      <c r="B130" s="7">
         <v>155.14926174740944</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>41518</v>
       </c>
-      <c r="B131" s="9">
-        <v>151.02593039405704</v>
-      </c>
-      <c r="C131" s="10">
+      <c r="B131" s="7">
         <v>152.54711684763714</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>41548</v>
       </c>
-      <c r="B132" s="9">
-        <v>151.33301471242206</v>
-      </c>
-      <c r="C132" s="10">
+      <c r="B132" s="7">
         <v>155.0668831090882</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>41579</v>
       </c>
-      <c r="B133" s="9">
-        <v>152.02601180456406</v>
-      </c>
-      <c r="C133" s="10">
+      <c r="B133" s="7">
         <v>152.17063576674948</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>41609</v>
       </c>
-      <c r="B134" s="9">
-        <v>150.3605561605749</v>
-      </c>
-      <c r="C134" s="10">
+      <c r="B134" s="7">
         <v>149.01756501139744</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>41640</v>
       </c>
-      <c r="B135" s="9">
-        <v>150.59322427548886</v>
-      </c>
-      <c r="C135" s="10">
+      <c r="B135" s="7">
         <v>150.3155029513517</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>41671</v>
       </c>
-      <c r="B136" s="9">
-        <v>150.56345048171627</v>
-      </c>
-      <c r="C136" s="10">
+      <c r="B136" s="7">
         <v>148.12013412168881</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>41699</v>
       </c>
-      <c r="B137" s="9">
-        <v>150.67898419042871</v>
-      </c>
-      <c r="C137" s="10">
+      <c r="B137" s="7">
         <v>150.49468915942151</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>41730</v>
       </c>
-      <c r="B138" s="9">
-        <v>150.99109790859868</v>
-      </c>
-      <c r="C138" s="10">
+      <c r="B138" s="7">
         <v>149.80692392840598</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>41760</v>
       </c>
-      <c r="B139" s="9">
-        <v>151.58052094726364</v>
-      </c>
-      <c r="C139" s="10">
+      <c r="B139" s="7">
         <v>152.98163060451554</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>41791</v>
       </c>
-      <c r="B140" s="9">
-        <v>147.76100839529713</v>
-      </c>
-      <c r="C140" s="10">
+      <c r="B140" s="7">
         <v>148.16910605612998</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>41821</v>
       </c>
-      <c r="B141" s="9">
-        <v>149.68537127963134</v>
-      </c>
-      <c r="C141" s="10">
+      <c r="B141" s="7">
         <v>152.05430010636957</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>41852</v>
       </c>
-      <c r="B142" s="9">
-        <v>149.65579106272384</v>
-      </c>
-      <c r="C142" s="10">
+      <c r="B142" s="7">
         <v>153.00187143273646</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>41883</v>
       </c>
-      <c r="B143" s="9">
-        <v>150.78212509055587</v>
-      </c>
-      <c r="C143" s="10">
+      <c r="B143" s="7">
         <v>152.26697325632387</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>41913</v>
       </c>
-      <c r="B144" s="9">
-        <v>150.71038833902284</v>
-      </c>
-      <c r="C144" s="10">
+      <c r="B144" s="7">
         <v>154.2549566040156</v>
       </c>
-      <c r="D144" s="8"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>41944</v>
       </c>
-      <c r="B145" s="9">
-        <v>150.09854783645153</v>
-      </c>
-      <c r="C145" s="10">
+      <c r="B145" s="7">
         <v>150.20915144475754</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>41974</v>
       </c>
-      <c r="B146" s="9">
-        <v>150.12748278667809</v>
-      </c>
-      <c r="C146" s="10">
+      <c r="B146" s="7">
         <v>148.75250794115334</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>42005</v>
       </c>
-      <c r="B147" s="9">
-        <v>148.95219655755085</v>
-      </c>
-      <c r="C147" s="10">
+      <c r="B147" s="7">
         <v>148.69691965857103</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>42036</v>
       </c>
-      <c r="B148" s="9">
-        <v>148.69184653249769</v>
-      </c>
-      <c r="C148" s="10">
+      <c r="B148" s="7">
         <v>144.52529758327535</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>42064</v>
       </c>
-      <c r="B149" s="9">
-        <v>147.91278501475426</v>
-      </c>
-      <c r="C149" s="10">
+      <c r="B149" s="7">
         <v>149.75459098175051</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>42095</v>
       </c>
-      <c r="B150" s="9">
-        <v>147.1079875291388</v>
-      </c>
-      <c r="C150" s="10">
+      <c r="B150" s="7">
         <v>145.81192247732014</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>42125</v>
       </c>
-      <c r="B151" s="9">
-        <v>146.00599970031129</v>
-      </c>
-      <c r="C151" s="10">
+      <c r="B151" s="7">
         <v>147.31814263566818</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>42156</v>
       </c>
-      <c r="B152" s="9">
-        <v>145.66875413149927</v>
-      </c>
-      <c r="C152" s="10">
+      <c r="B152" s="7">
         <v>146.27542134150795</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>42186</v>
       </c>
-      <c r="B153" s="9">
-        <v>145.4326935017107</v>
-      </c>
-      <c r="C153" s="10">
+      <c r="B153" s="7">
         <v>147.77712580316432</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>42217</v>
       </c>
-      <c r="B154" s="9">
-        <v>144.66800655670963</v>
-      </c>
-      <c r="C154" s="10">
+      <c r="B154" s="7">
         <v>147.98474548802093</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>42248</v>
       </c>
-      <c r="B155" s="9">
-        <v>144.43073156917569</v>
-      </c>
-      <c r="C155" s="10">
+      <c r="B155" s="7">
         <v>145.76253588141498</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>42278</v>
       </c>
-      <c r="B156" s="9">
-        <v>144.28466720184855</v>
-      </c>
-      <c r="C156" s="10">
+      <c r="B156" s="7">
         <v>147.43460032674366</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>42309</v>
       </c>
-      <c r="B157" s="9">
-        <v>143.23418085708721</v>
-      </c>
-      <c r="C157" s="10">
+      <c r="B157" s="7">
         <v>143.28802876925715</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>42339</v>
       </c>
-      <c r="B158" s="9">
-        <v>143.66510471692919</v>
-      </c>
-      <c r="C158" s="10">
+      <c r="B158" s="7">
         <v>142.32152337732123</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>42370</v>
       </c>
-      <c r="B159" s="9">
-        <v>141.26670081183701</v>
-      </c>
-      <c r="C159" s="10">
+      <c r="B159" s="7">
         <v>141.08164479759023</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>42401</v>
       </c>
-      <c r="B160" s="9">
-        <v>143.6750334037996</v>
-      </c>
-      <c r="C160" s="10">
+      <c r="B160" s="7">
         <v>139.74344129144586</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>42430</v>
       </c>
-      <c r="B161" s="9">
-        <v>143.10036844474419</v>
-      </c>
-      <c r="C161" s="10">
+      <c r="B161" s="7">
         <v>143.67568964414988</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>42461</v>
       </c>
-      <c r="B162" s="9">
-        <v>141.62267157558711</v>
-      </c>
-      <c r="C162" s="10">
+      <c r="B162" s="7">
         <v>141.4628681811374</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>42491</v>
       </c>
-      <c r="B163" s="9">
-        <v>141.56396186380118</v>
-      </c>
-      <c r="C163" s="10">
+      <c r="B163" s="7">
         <v>142.81266662012021</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>42522</v>
       </c>
-      <c r="B164" s="9">
-        <v>142.27483891249636</v>
-      </c>
-      <c r="C164" s="10">
+      <c r="B164" s="7">
         <v>143.06662119980885</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>42552</v>
       </c>
-      <c r="B165" s="9">
-        <v>141.61167840367455</v>
-      </c>
-      <c r="C165" s="10">
+      <c r="B165" s="7">
         <v>144.02571984397966</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>42583</v>
       </c>
-      <c r="B166" s="9">
-        <v>141.51353851735112</v>
-      </c>
-      <c r="C166" s="10">
+      <c r="B166" s="7">
         <v>144.89400119532027</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>42614</v>
       </c>
-      <c r="B167" s="9">
-        <v>141.23489689784586</v>
-      </c>
-      <c r="C167" s="10">
+      <c r="B167" s="7">
         <v>142.41819409386403</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>42644</v>
       </c>
-      <c r="B168" s="9">
-        <v>139.35019083007924</v>
-      </c>
-      <c r="C168" s="10">
+      <c r="B168" s="7">
         <v>142.12051196985738</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>42675</v>
       </c>
-      <c r="B169" s="9">
-        <v>140.86772959811134</v>
-      </c>
-      <c r="C169" s="10">
+      <c r="B169" s="7">
         <v>140.89789844186106</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>42705</v>
       </c>
-      <c r="B170" s="9">
-        <v>141.33160819672463</v>
-      </c>
-      <c r="C170" s="10">
+      <c r="B170" s="7">
         <v>139.97743540519934</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>42736</v>
       </c>
-      <c r="B171" s="9">
-        <v>142.5264251512086</v>
-      </c>
-      <c r="C171" s="10">
+      <c r="B171" s="7">
         <v>142.35198585021655</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>42767</v>
       </c>
-      <c r="B172" s="9">
-        <v>143.05983503374688</v>
-      </c>
-      <c r="C172" s="10">
+      <c r="B172" s="7">
         <v>139.17629280076829</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>42795</v>
       </c>
-      <c r="B173" s="9">
-        <v>142.34577818656979</v>
-      </c>
-      <c r="C173" s="10">
+      <c r="B173" s="7">
         <v>144.11818724857937</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>42826</v>
       </c>
-      <c r="B174" s="9">
-        <v>141.17773931087484</v>
-      </c>
-      <c r="C174" s="10">
+      <c r="B174" s="7">
         <v>139.7772426669315</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>42856</v>
       </c>
-      <c r="B175" s="9">
-        <v>143.40787363138494</v>
-      </c>
-      <c r="C175" s="10">
+      <c r="B175" s="7">
         <v>144.64373763417692</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>42887</v>
       </c>
-      <c r="B176" s="9">
-        <v>142.91731779369877</v>
-      </c>
-      <c r="C176" s="10">
+      <c r="B176" s="7">
         <v>143.92025558458937</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>42917</v>
       </c>
-      <c r="B177" s="9">
-        <v>142.59471558566344</v>
-      </c>
-      <c r="C177" s="10">
+      <c r="B177" s="7">
         <v>145.17345721961109</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>42948</v>
       </c>
-      <c r="B178" s="9">
-        <v>142.61616336544864</v>
-      </c>
-      <c r="C178" s="10">
+      <c r="B178" s="7">
         <v>146.19265240690021</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" s="1">
         <v>42979</v>
       </c>
-      <c r="B179" s="9">
-        <v>143.22043025583491</v>
-      </c>
-      <c r="C179" s="10">
+      <c r="B179" s="7">
         <v>144.28115280593741</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" s="1">
         <v>43009</v>
       </c>
-      <c r="B180" s="9">
-        <v>142.26156903781106</v>
-      </c>
-      <c r="C180" s="10">
+      <c r="B180" s="7">
         <v>144.86041824715494</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" s="1">
         <v>43040</v>
       </c>
-      <c r="B181" s="9">
-        <v>143.46453874411961</v>
-      </c>
-      <c r="C181" s="10">
+      <c r="B181" s="7">
         <v>143.48990551344579</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>43070</v>
       </c>
-      <c r="B182" s="9">
-        <v>143.54330535764589</v>
-      </c>
-      <c r="C182" s="10">
+      <c r="B182" s="7">
         <v>142.1026373649282</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>43101</v>
       </c>
-      <c r="B183" s="9">
-        <v>143.58873162200121</v>
-      </c>
-      <c r="C183" s="10">
+      <c r="B183" s="7">
         <v>143.46019956247181</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="1">
         <v>43132</v>
       </c>
-      <c r="B184" s="9">
-        <v>143.30166078854722</v>
-      </c>
-      <c r="C184" s="10">
+      <c r="B184" s="7">
         <v>139.38235989728221</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="1">
         <v>43160</v>
       </c>
-      <c r="B185" s="9">
-        <v>144.41771959214191</v>
-      </c>
-      <c r="C185" s="10">
+      <c r="B185" s="7">
         <v>144.87648224819557</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="1">
         <v>43191</v>
       </c>
-      <c r="B186" s="9">
-        <v>144.10883019379415</v>
-      </c>
-      <c r="C186" s="10">
+      <c r="B186" s="7">
         <v>143.89746262206486</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" s="1">
         <v>43221</v>
       </c>
-      <c r="B187" s="9">
-        <v>141.62720956344239</v>
-      </c>
-      <c r="C187" s="10">
+      <c r="B187" s="7">
         <v>142.89310700623437</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" s="1">
         <v>43252</v>
       </c>
-      <c r="B188" s="9">
-        <v>144.34104395519515</v>
-      </c>
-      <c r="C188" s="10">
+      <c r="B188" s="7">
         <v>145.45676757541793</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" s="1">
         <v>43282</v>
       </c>
-      <c r="B189" s="9">
-        <v>144.68359922801983</v>
-      </c>
-      <c r="C189" s="10">
+      <c r="B189" s="7">
         <v>147.444119945393</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" s="1">
         <v>43313</v>
       </c>
-      <c r="B190" s="9">
-        <v>145.32023552786026</v>
-      </c>
-      <c r="C190" s="10">
+      <c r="B190" s="7">
         <v>149.10163626282107</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" s="1">
         <v>43344</v>
       </c>
-      <c r="B191" s="9">
-        <v>143.8506906137826</v>
-      </c>
-      <c r="C191" s="10">
+      <c r="B191" s="7">
         <v>144.83095777172275</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="1">
         <v>43374</v>
       </c>
-      <c r="B192" s="9">
-        <v>144.66300459801917</v>
-      </c>
-      <c r="C192" s="10">
+      <c r="B192" s="7">
         <v>147.13178907886351</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="1">
         <v>43405</v>
       </c>
-      <c r="B193" s="9">
-        <v>145.14305251701617</v>
-      </c>
-      <c r="C193" s="10">
+      <c r="B193" s="7">
         <v>145.22854641244257</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="1">
         <v>43435</v>
       </c>
-      <c r="B194" s="9">
-        <v>144.35099201218665</v>
-      </c>
-      <c r="C194" s="10">
+      <c r="B194" s="7">
         <v>142.84814499989594</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="1">
         <v>43466</v>
       </c>
-      <c r="B195" s="9">
-        <v>144.68229683821008</v>
-      </c>
-      <c r="C195" s="10">
+      <c r="B195" s="7">
         <v>144.5440255091363</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="1">
         <v>43497</v>
       </c>
-      <c r="B196" s="9">
-        <v>144.18020415288154</v>
-      </c>
-      <c r="C196" s="10">
+      <c r="B196" s="7">
         <v>141.99910302069515</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="1">
         <v>43525</v>
       </c>
-      <c r="B197" s="9">
-        <v>143.83663497964486</v>
-      </c>
-      <c r="C197" s="10">
+      <c r="B197" s="7">
         <v>143.55278293483929</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="1">
         <v>43556</v>
       </c>
-      <c r="B198" s="9">
-        <v>145.29825871764658</v>
-      </c>
-      <c r="C198" s="10">
+      <c r="B198" s="7">
         <v>143.90769763147796</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="1">
         <v>43586</v>
       </c>
-      <c r="B199" s="9">
-        <v>146.66654305004872</v>
-      </c>
-      <c r="C199" s="10">
+      <c r="B199" s="7">
         <v>148.04254766976518</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="1">
         <v>43617</v>
       </c>
-      <c r="B200" s="9">
-        <v>143.75519872785918</v>
-      </c>
-      <c r="C200" s="10">
+      <c r="B200" s="7">
         <v>144.91327910505262</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="1">
         <v>43647</v>
       </c>
-      <c r="B201" s="9">
-        <v>146.12520019406497</v>
-      </c>
-      <c r="C201" s="10">
+      <c r="B201" s="7">
         <v>148.95953702330178</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>43678</v>
       </c>
-      <c r="B202" s="9">
-        <v>145.83669813111598</v>
-      </c>
-      <c r="C202" s="10">
+      <c r="B202" s="7">
         <v>149.69789980915905</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="1">
         <v>43709</v>
       </c>
-      <c r="B203" s="9">
-        <v>146.29663426158095</v>
-      </c>
-      <c r="C203" s="10">
+      <c r="B203" s="7">
         <v>147.30066938244073</v>
       </c>
     </row>
